--- a/labs/data/LTDB-DATA-DICTIONARY.xlsx
+++ b/labs/data/LTDB-DATA-DICTIONARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdlecy\Dropbox\00 - PEDA\00 - GITHUB\COURSE-CPP-528-DS-03\cpp-528-spr-2020\labs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90CC1B8-AACD-432C-8F36-493FCA641090}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCFDCFF-B6DD-47EC-A657-9C533E4578F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="955">
   <si>
     <t>root</t>
   </si>
@@ -2882,6 +2882,9 @@
   </si>
   <si>
     <t>demographics</t>
+  </si>
+  <si>
+    <t>tract attribute</t>
   </si>
 </sst>
 </file>
@@ -3037,7 +3040,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3247,6 +3250,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -3428,7 +3437,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3497,6 +3506,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3854,11 +3866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V280"/>
+  <dimension ref="A1:V281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,2420 +4104,2423 @@
         <v>891</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>168</v>
-      </c>
+    <row r="6" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>492</v>
+        <v>169</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>492</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="2" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>493</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>741</v>
+        <v>492</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>741</v>
+        <v>492</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="2" t="s">
-        <v>742</v>
+        <v>493</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>742</v>
+        <v>493</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>742</v>
+        <v>493</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>742</v>
+        <v>493</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>742</v>
+        <v>493</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>742</v>
+        <v>493</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>742</v>
+        <v>493</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>742</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>313</v>
+        <v>741</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>313</v>
+        <v>741</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="D10" s="12"/>
+      <c r="E10" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>742</v>
+      </c>
       <c r="G10" s="20" t="s">
-        <v>314</v>
+        <v>742</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>742</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>315</v>
+        <v>742</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>317</v>
+        <v>742</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="D11" s="12"/>
       <c r="G11" s="20" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>318</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="D12" s="12"/>
       <c r="G12" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>742</v>
+        <v>319</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>742</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>742</v>
+        <v>320</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>742</v>
+        <v>321</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>741</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>741</v>
+      </c>
       <c r="C13" s="4" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="D13" s="12"/>
       <c r="G13" s="20" t="s">
-        <v>168</v>
+        <v>742</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>168</v>
+        <v>742</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>168</v>
+        <v>742</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>168</v>
+        <v>742</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>168</v>
+        <v>742</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>168</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="C14" s="4" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="D14" s="12"/>
       <c r="G14" s="20" t="s">
-        <v>493</v>
+        <v>168</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>493</v>
+        <v>168</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>493</v>
+        <v>168</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>493</v>
+        <v>168</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>493</v>
+        <v>168</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>493</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>492</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>492</v>
+      </c>
       <c r="C15" s="4" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="D15" s="12"/>
       <c r="G15" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="G16" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K16" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:22" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="H18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="17" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:22" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H19" s="18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D20" s="12"/>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="H20" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D21" s="12"/>
       <c r="H21" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H22" s="18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="H24" s="18" t="s">
-        <v>52</v>
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H25" s="18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D26" s="12"/>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H26" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D27" s="12"/>
       <c r="H27" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>74</v>
+      <c r="H28" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="N30" s="2" t="s">
-        <v>86</v>
+      <c r="E30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D31" s="12"/>
       <c r="N31" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D32" s="12"/>
       <c r="N32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D33" s="12"/>
       <c r="N33" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D34" s="12"/>
       <c r="N34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="N35" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>933</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>943</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>111</v>
+      <c r="D37" s="12"/>
+      <c r="E37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>933</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>944</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>114</v>
+        <v>943</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="F39" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>118</v>
+      <c r="D39" s="12" t="s">
+        <v>944</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>933</v>
       </c>
       <c r="D40" s="12"/>
+      <c r="F40" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="H40" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D41" s="12"/>
       <c r="H41" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D42" s="12"/>
-      <c r="E42" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="H42" s="18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D43" s="12"/>
+      <c r="E43" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H43" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D44" s="12"/>
       <c r="H44" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>932</v>
       </c>
       <c r="D45" s="12"/>
-      <c r="E45" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="H45" s="18" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>182</v>
+        <v>935</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="D52" s="12"/>
+        <v>937</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>938</v>
+      </c>
       <c r="F52" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>947</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>207</v>
+        <v>935</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="F53" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>946</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>948</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>210</v>
+        <v>947</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="12"/>
+        <v>209</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>210</v>
+      </c>
       <c r="H55" s="18" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="12"/>
-      <c r="F56" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="H56" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="12"/>
       <c r="F57" s="15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="12"/>
+      <c r="F58" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="H58" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="12"/>
-      <c r="F59" s="15" t="s">
-        <v>235</v>
-      </c>
       <c r="H59" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="2" t="s">
-        <v>240</v>
+      <c r="F60" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="12"/>
+      <c r="E61" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="H61" s="18" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="12"/>
-      <c r="F62" s="15" t="s">
-        <v>251</v>
-      </c>
       <c r="H62" s="18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="12"/>
       <c r="F63" s="15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="12"/>
       <c r="F64" s="15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="12"/>
       <c r="F65" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K65" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="M65" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="12"/>
       <c r="F66" s="15" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="K66" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="12"/>
       <c r="F67" s="15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K67" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>286</v>
+        <v>278</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>291</v>
+      <c r="F68" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M68" s="15" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="12"/>
-      <c r="F69" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>299</v>
+      <c r="E69" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>293</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="12"/>
       <c r="F70" s="15" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="12"/>
       <c r="F71" s="15" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="12"/>
       <c r="F72" s="15" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="12"/>
       <c r="F73" s="15" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="I74" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="K74" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="M74" s="15" t="s">
-        <v>340</v>
+      <c r="F74" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="12"/>
-      <c r="F75" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="H75" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>346</v>
+      <c r="E75" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K75" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>949</v>
+        <v>342</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="12"/>
+      <c r="F76" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="12"/>
+        <v>348</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>949</v>
+      </c>
       <c r="H77" s="18" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>950</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="12"/>
       <c r="H78" s="18" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="12"/>
+        <v>358</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>950</v>
+      </c>
       <c r="H79" s="18" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>370</v>
-      </c>
+      <c r="D80" s="12"/>
       <c r="H80" s="18" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="12" t="s">
-        <v>376</v>
+        <v>369</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="12"/>
-      <c r="G85" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="I85" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="K85" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="M85" s="15" t="s">
-        <v>403</v>
+      <c r="D85" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="12"/>
-      <c r="F86" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="H86" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L86" s="4" t="s">
-        <v>409</v>
+      <c r="G86" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="K86" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="M86" s="15" t="s">
+        <v>403</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="12"/>
-      <c r="E87" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="G87" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="I87" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="K87" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="M87" s="15" t="s">
-        <v>416</v>
+      <c r="F87" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="12"/>
-      <c r="L88" s="4" t="s">
-        <v>419</v>
+      <c r="E88" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="K88" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="12"/>
-      <c r="F89" s="15" t="s">
-        <v>421</v>
+      <c r="L89" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="12"/>
-      <c r="H90" s="18" t="s">
-        <v>423</v>
+      <c r="F90" s="15" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="12"/>
-      <c r="J91" s="2" t="s">
-        <v>425</v>
+      <c r="H91" s="18" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>429</v>
-      </c>
+      <c r="D92" s="12"/>
       <c r="J92" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="I93" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="K93" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="M93" s="15" t="s">
-        <v>438</v>
+      <c r="D93" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="12"/>
-      <c r="F94" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="L94" s="4" t="s">
-        <v>444</v>
+      <c r="E94" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="K94" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="M94" s="15" t="s">
+        <v>438</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="12"/>
       <c r="F95" s="15" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="12"/>
       <c r="F96" s="15" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="12"/>
       <c r="F97" s="15" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="12"/>
-      <c r="E98" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="I98" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="K98" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="M98" s="15" t="s">
-        <v>469</v>
+      <c r="F98" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="12"/>
       <c r="E99" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="12"/>
-      <c r="H100" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>481</v>
+      <c r="E100" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="K100" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="M100" s="15" t="s">
+        <v>476</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="12"/>
-      <c r="F101" s="15" t="s">
-        <v>484</v>
-      </c>
       <c r="H101" s="18" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C102" s="4"/>
-      <c r="D102" s="12" t="s">
-        <v>951</v>
-      </c>
-      <c r="E102" s="3">
-        <v>25628</v>
-      </c>
-      <c r="G102" s="21">
-        <v>29281</v>
-      </c>
-      <c r="I102" s="23">
-        <v>32933</v>
+      <c r="D102" s="12"/>
+      <c r="F102" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -6513,1392 +6528,1383 @@
         <v>489</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="12" t="s">
         <v>951</v>
       </c>
-      <c r="L103" s="4" t="s">
-        <v>491</v>
+      <c r="E103" s="3">
+        <v>25628</v>
+      </c>
+      <c r="G103" s="21">
+        <v>29281</v>
+      </c>
+      <c r="I103" s="23">
+        <v>32933</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>928</v>
+      <c r="B104" s="28" t="s">
+        <v>490</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="12" t="s">
         <v>951</v>
       </c>
-      <c r="N104" s="2" t="s">
-        <v>929</v>
+      <c r="L104" s="4" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="D105" s="12"/>
-      <c r="F105" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="G105" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="I105" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="K105" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="M105" s="15" t="s">
-        <v>499</v>
+        <v>489</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="12" t="s">
+        <v>951</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>500</v>
+        <v>929</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="12" t="s">
-        <v>502</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D106" s="12"/>
       <c r="F106" s="15" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>506</v>
+        <v>497</v>
+      </c>
+      <c r="K106" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="M106" s="15" t="s">
+        <v>499</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="12" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H108" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>518</v>
+      <c r="D108" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>512</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="12"/>
-      <c r="F109" s="15" t="s">
-        <v>522</v>
+      <c r="E109" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="12"/>
       <c r="F110" s="15" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="12"/>
+      <c r="F111" s="15" t="s">
+        <v>528</v>
+      </c>
       <c r="H111" s="18" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="12"/>
-      <c r="F112" s="15" t="s">
-        <v>539</v>
-      </c>
       <c r="H112" s="18" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="12"/>
       <c r="F113" s="15" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="12"/>
       <c r="F114" s="15" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H114" s="18" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="12"/>
-      <c r="G115" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="I115" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="K115" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="M115" s="15" t="s">
-        <v>560</v>
+      <c r="F115" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="H115" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>554</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="12"/>
-      <c r="H116" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="L116" s="4" t="s">
-        <v>565</v>
+      <c r="G116" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="I116" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="M116" s="15" t="s">
+        <v>560</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="12"/>
-      <c r="G117" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="I117" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="K117" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="M117" s="15" t="s">
-        <v>571</v>
+      <c r="H117" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="12"/>
-      <c r="H118" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="L118" s="4" t="s">
-        <v>576</v>
+      <c r="G118" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="K118" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="M118" s="15" t="s">
+        <v>571</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="12"/>
-      <c r="F119" s="15" t="s">
-        <v>579</v>
-      </c>
       <c r="H119" s="18" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="12"/>
-      <c r="G120" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="I120" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="K120" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="M120" s="15" t="s">
-        <v>588</v>
+      <c r="F120" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="12"/>
-      <c r="F121" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="H121" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>594</v>
+      <c r="G121" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="I121" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="K121" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="M121" s="15" t="s">
+        <v>588</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="12"/>
-      <c r="E122" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="G122" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="I122" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="K122" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="M122" s="15" t="s">
-        <v>601</v>
+      <c r="F122" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="H122" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="12"/>
-      <c r="L123" s="4" t="s">
-        <v>604</v>
+      <c r="E123" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="K123" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="M123" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="12"/>
-      <c r="F124" s="15" t="s">
-        <v>606</v>
+      <c r="L124" s="4" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="12"/>
-      <c r="H125" s="18" t="s">
-        <v>608</v>
+      <c r="F125" s="15" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="12"/>
-      <c r="J126" s="2" t="s">
-        <v>610</v>
+      <c r="H126" s="18" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="12"/>
-      <c r="H127" s="18" t="s">
-        <v>612</v>
-      </c>
       <c r="J127" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="L127" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="12"/>
-      <c r="E128" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="G128" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="I128" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="K128" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="M128" s="15" t="s">
-        <v>621</v>
+      <c r="H128" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C129" s="4"/>
-      <c r="D129" s="12" t="s">
-        <v>624</v>
+      <c r="D129" s="12"/>
+      <c r="E129" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="K129" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="M129" s="15" t="s">
+        <v>621</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="12" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="12" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="12" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C139" s="4"/>
-      <c r="D139" s="12"/>
+      <c r="D139" s="12" t="s">
+        <v>651</v>
+      </c>
       <c r="N139" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="12"/>
       <c r="N140" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="12"/>
       <c r="N141" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="12"/>
       <c r="N142" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C143" s="4"/>
-      <c r="D143" s="12" t="s">
-        <v>662</v>
-      </c>
+      <c r="D143" s="12"/>
       <c r="N143" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C144" s="4"/>
-      <c r="D144" s="12"/>
+      <c r="D144" s="12" t="s">
+        <v>662</v>
+      </c>
       <c r="N144" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C145" s="4"/>
-      <c r="D145" s="12" t="s">
-        <v>667</v>
-      </c>
+      <c r="D145" s="12"/>
       <c r="N145" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="12" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="12" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="12" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="12" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="12" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="12" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="12" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="12" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="12" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="12" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="12" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="12" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="12" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="12" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="12" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="12" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="12" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="12" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="12" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="12" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="12" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="12" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="12" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="12" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="12" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="12" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="12" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="12" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="12" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>934</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="C177" s="4"/>
       <c r="D177" s="12" t="s">
-        <v>939</v>
+        <v>762</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>934</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>934</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>769</v>
+        <v>940</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="D181" s="12"/>
-      <c r="E181" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="G181" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="I181" s="15" t="s">
-        <v>777</v>
-      </c>
-      <c r="K181" s="18" t="s">
-        <v>778</v>
-      </c>
-      <c r="M181" s="15" t="s">
-        <v>779</v>
+        <v>935</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>772</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -7906,693 +7912,711 @@
         <v>774</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>953</v>
       </c>
       <c r="D182" s="12"/>
-      <c r="H182" s="18" t="s">
-        <v>782</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="L182" s="4" t="s">
-        <v>784</v>
+      <c r="E182" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="G182" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="I182" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="K182" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="M182" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="N182" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>785</v>
+      <c r="B183" s="28" t="s">
+        <v>781</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>953</v>
       </c>
       <c r="D183" s="12"/>
       <c r="H183" s="18" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>788</v>
+      <c r="B184" s="28" t="s">
+        <v>785</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>953</v>
       </c>
       <c r="D184" s="12"/>
-      <c r="F184" s="15" t="s">
-        <v>789</v>
+      <c r="H184" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>790</v>
+      <c r="B185" s="28" t="s">
+        <v>788</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>953</v>
       </c>
       <c r="D185" s="12"/>
       <c r="F185" s="15" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>792</v>
+        <v>774</v>
+      </c>
+      <c r="B186" s="28" t="s">
+        <v>790</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="D186" s="12" t="s">
-        <v>793</v>
-      </c>
-      <c r="N186" s="2" t="s">
-        <v>794</v>
+        <v>953</v>
+      </c>
+      <c r="D186" s="12"/>
+      <c r="F186" s="15" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>937</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>941</v>
-      </c>
-      <c r="F190" s="15" t="s">
-        <v>805</v>
-      </c>
-      <c r="G190" s="20" t="s">
-        <v>806</v>
-      </c>
-      <c r="I190" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="K190" s="18" t="s">
-        <v>808</v>
-      </c>
-      <c r="M190" s="15" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F191" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="H191" s="18" t="s">
-        <v>813</v>
-      </c>
-      <c r="J191" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="L191" s="4" t="s">
-        <v>815</v>
+        <v>805</v>
+      </c>
+      <c r="G191" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="K191" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="M191" s="15" t="s">
+        <v>809</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="C192" s="4"/>
+        <v>811</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>937</v>
+      </c>
       <c r="D192" s="12" t="s">
-        <v>818</v>
+        <v>942</v>
+      </c>
+      <c r="F192" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="H192" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>815</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="12" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="12" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="12" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="12" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="12" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="12" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="12" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="12" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="12" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C203" s="4"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="G203" s="20" t="s">
-        <v>852</v>
-      </c>
-      <c r="I203" s="15" t="s">
-        <v>853</v>
-      </c>
-      <c r="K203" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="M203" s="15" t="s">
-        <v>855</v>
+      <c r="D203" s="12" t="s">
+        <v>848</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="12"/>
-      <c r="F204" s="15" t="s">
-        <v>858</v>
-      </c>
-      <c r="H204" s="18" t="s">
-        <v>859</v>
-      </c>
-      <c r="J204" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="L204" s="4" t="s">
-        <v>861</v>
+      <c r="E204" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="G204" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="I204" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="K204" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="M204" s="15" t="s">
+        <v>855</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="12"/>
       <c r="F205" s="15" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="12"/>
       <c r="F206" s="15" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="12"/>
       <c r="F207" s="15" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="L207" s="4" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="12"/>
       <c r="F208" s="15" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="H208" s="18" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="L208" s="4" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="12"/>
       <c r="F209" s="15" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="L209" s="4" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="12"/>
-      <c r="E210" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="G210" s="20" t="s">
-        <v>903</v>
-      </c>
-      <c r="I210" s="15" t="s">
-        <v>904</v>
-      </c>
-      <c r="K210" s="18" t="s">
-        <v>905</v>
-      </c>
-      <c r="M210" s="15" t="s">
-        <v>906</v>
+      <c r="F210" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="H210" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="L210" s="4" t="s">
+        <v>899</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="12"/>
-      <c r="F211" s="15" t="s">
-        <v>909</v>
-      </c>
-      <c r="H211" s="18" t="s">
-        <v>910</v>
-      </c>
-      <c r="J211" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="L211" s="4" t="s">
-        <v>912</v>
+      <c r="E211" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="G211" s="20" t="s">
+        <v>903</v>
+      </c>
+      <c r="I211" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="K211" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="M211" s="15" t="s">
+        <v>906</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="12"/>
-      <c r="G212" s="20" t="s">
-        <v>915</v>
-      </c>
-      <c r="I212" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="K212" s="18" t="s">
-        <v>917</v>
-      </c>
-      <c r="M212" s="15" t="s">
-        <v>918</v>
+      <c r="F212" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="H212" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="L212" s="4" t="s">
+        <v>912</v>
       </c>
       <c r="N212" s="2" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="12"/>
-      <c r="E213" s="2" t="s">
-        <v>921</v>
-      </c>
       <c r="G213" s="20" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="I213" s="15" t="s">
-        <v>923</v>
-      </c>
-      <c r="L213" s="4" t="s">
-        <v>924</v>
+        <v>916</v>
+      </c>
+      <c r="K213" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="M213" s="15" t="s">
+        <v>918</v>
       </c>
       <c r="N213" s="2" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="12"/>
       <c r="E214" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="G214" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="I214" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="L214" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="N214" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C215" s="4"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="2" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="215" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="16"/>
-      <c r="G215" s="22"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="16"/>
-      <c r="J215" s="10"/>
-      <c r="K215" s="17"/>
-      <c r="L215" s="11"/>
-      <c r="M215" s="16"/>
-      <c r="N215" s="10"/>
-      <c r="O215" s="13"/>
-      <c r="P215" s="13"/>
-      <c r="Q215" s="13"/>
-      <c r="R215" s="13"/>
-      <c r="S215" s="13"/>
-      <c r="T215" s="13"/>
-      <c r="U215" s="13"/>
-      <c r="V215" s="13"/>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="18"/>
-      <c r="I216" s="18"/>
-      <c r="J216" s="4"/>
-      <c r="M216" s="18"/>
-      <c r="N216" s="4"/>
+    <row r="216" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="17"/>
+      <c r="I216" s="16"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="17"/>
+      <c r="L216" s="11"/>
+      <c r="M216" s="16"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="13"/>
+      <c r="P216" s="13"/>
+      <c r="Q216" s="13"/>
+      <c r="R216" s="13"/>
+      <c r="S216" s="13"/>
+      <c r="T216" s="13"/>
+      <c r="U216" s="13"/>
+      <c r="V216" s="13"/>
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
@@ -9362,6 +9386,18 @@
       <c r="M280" s="18"/>
       <c r="N280" s="4"/>
     </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="4"/>
+      <c r="F281" s="18"/>
+      <c r="I281" s="18"/>
+      <c r="J281" s="4"/>
+      <c r="M281" s="18"/>
+      <c r="N281" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
